--- a/.venv/tabela_de_saida.xlsx
+++ b/.venv/tabela_de_saida.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="11">
   <si>
     <t xml:space="preserve">data</t>
   </si>
@@ -32,6 +32,27 @@
   </si>
   <si>
     <t xml:space="preserve">recebedor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jetimob</t>
+  </si>
+  <si>
+    <t xml:space="preserve">478.9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Canal Pro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1462.78</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Imóvel web</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1188.6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chaves na mão</t>
   </si>
 </sst>
 </file>
@@ -122,7 +143,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -131,8 +152,12 @@
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -330,7 +355,7 @@
   <dimension ref="A1:D1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
+      <selection pane="topLeft" activeCell="C10" activeCellId="0" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -350,7 +375,116 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2"/>
+      <c r="A2" s="2" t="n">
+        <v>45667</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="2" t="n">
+        <v>45685</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="2" t="n">
+        <v>45663</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="2" t="n">
+        <v>45662</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="3" t="n">
+        <v>1582</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="2" t="n">
+        <v>45698</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="2" t="n">
+        <v>45716</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="2" t="n">
+        <v>45694</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="2" t="n">
+        <v>45693</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="3" t="n">
+        <v>1582</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>

--- a/.venv/tabela_de_saida.xlsx
+++ b/.venv/tabela_de_saida.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="18">
   <si>
     <t xml:space="preserve">data</t>
   </si>
@@ -34,25 +34,46 @@
     <t xml:space="preserve">recebedor</t>
   </si>
   <si>
+    <t xml:space="preserve">10/01/2025</t>
+  </si>
+  <si>
     <t xml:space="preserve">Jetimob</t>
   </si>
   <si>
     <t xml:space="preserve">478.9</t>
   </si>
   <si>
+    <t xml:space="preserve">28/01/2025</t>
+  </si>
+  <si>
     <t xml:space="preserve">Canal Pro</t>
   </si>
   <si>
     <t xml:space="preserve">1462.78</t>
   </si>
   <si>
+    <t xml:space="preserve">06/01/2025</t>
+  </si>
+  <si>
     <t xml:space="preserve">Imóvel web</t>
   </si>
   <si>
     <t xml:space="preserve">1188.6</t>
   </si>
   <si>
+    <t xml:space="preserve">05/01/2025</t>
+  </si>
+  <si>
     <t xml:space="preserve">Chaves na mão</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10/02/2025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">06/02/2025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">05/02/2025</t>
   </si>
 </sst>
 </file>
@@ -153,7 +174,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -355,7 +376,7 @@
   <dimension ref="A1:D1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C10" activeCellId="0" sqref="C10"/>
+      <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -374,74 +395,74 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="n">
-        <v>45667</v>
+    <row r="2" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="2" t="s">
+        <v>4</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2" t="n">
-        <v>45685</v>
+    </row>
+    <row r="3" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="2" t="s">
+        <v>7</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2" t="n">
-        <v>45663</v>
+      <c r="A4" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2" t="n">
-        <v>45662</v>
+      <c r="A5" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C5" s="3" t="n">
         <v>1582</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="2" t="n">
-        <v>45698</v>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C6" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="3" t="s">
         <v>5</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -449,41 +470,41 @@
         <v>45716</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="2" t="n">
-        <v>45694</v>
+      <c r="A8" s="2" t="s">
+        <v>16</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="2" t="n">
-        <v>45693</v>
+      <c r="A9" s="2" t="s">
+        <v>17</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C9" s="3" t="n">
         <v>1582</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>

--- a/.venv/tabela_de_saida.xlsx
+++ b/.venv/tabela_de_saida.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="19">
   <si>
     <t xml:space="preserve">data</t>
   </si>
@@ -68,6 +68,9 @@
   </si>
   <si>
     <t xml:space="preserve">10/02/2025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28/02/2025</t>
   </si>
   <si>
     <t xml:space="preserve">06/02/2025</t>
@@ -376,7 +379,7 @@
   <dimension ref="A1:D1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
+      <selection pane="topLeft" activeCell="B8" activeCellId="0" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -465,9 +468,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="2" t="n">
-        <v>45716</v>
+    <row r="7" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="2" t="s">
+        <v>16</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>8</v>
@@ -481,7 +484,7 @@
     </row>
     <row r="8" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>11</v>
@@ -495,7 +498,7 @@
     </row>
     <row r="9" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>14</v>
